--- a/FuzzyMath_7sem/lab3/таблица критериев.xlsx
+++ b/FuzzyMath_7sem/lab3/таблица критериев.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pixel\Documents\python\FuzzyMath_7sem\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2299291-7217-46C9-BC0A-B33AE93225C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5506A72-10D7-46E8-BC2C-5146C2CBFD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="660" yWindow="660" windowWidth="17280" windowHeight="9144" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица критериев" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>сладость</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>3 вариант</t>
+  </si>
+  <si>
+    <t>по каждому притерию</t>
+  </si>
+  <si>
+    <t>3 среднеарифм нвп</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,6 +788,9 @@
         <f>F3/(SUM(F2:F4))</f>
         <v>0.29064307613424772</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -804,6 +813,9 @@
       <c r="G4" s="5">
         <f>F4/(SUM(F2:F4))</f>
         <v>0.10479496291686055</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
